--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C988F33-E974-4516-BC95-27D0B68ECC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FD84A2-D8E1-420F-B67D-AE002DC5AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,20 +39,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Bujor Remus Andrei</t>
+  </si>
   <si>
     <t>Document  Title:</t>
   </si>
   <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucilă Mihai - Cristian </t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t>Firicescu George</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Călăuz Răzvan-Ioan</t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review date: </t>
   </si>
   <si>
-    <t>Reviewer Name:</t>
-  </si>
-  <si>
-    <t>do not print this form</t>
-  </si>
-  <si>
     <t>Crt. No.</t>
   </si>
   <si>
@@ -62,76 +104,160 @@
     <t>Comments/ improvements</t>
   </si>
   <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>Task-ul are niste detalii predefinite, iar dupa aceea ne este indicat faptul ca un task poate fi activ sau nu.</t>
+  </si>
+  <si>
+    <t>RO7</t>
+  </si>
+  <si>
+    <t>Cerinta</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza formatul datelor de intrare din fiserul binar/text.</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>Ce detalii se pot modifica? Data? Descrierea?</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>Cum identifici unic un task?</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>F02,F03, F04</t>
+  </si>
+  <si>
+    <t>Nu se specifica se se afiseaza mai exact de la un task anume.</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Author Name:</t>
+    <t>30 mins :0 ~0.5hrs</t>
+  </si>
+  <si>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
+  </si>
+  <si>
+    <t>Bucilă Mihai - Cristian</t>
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
+    <t>Georgescu Anca</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerinta </t>
+  </si>
+  <si>
+    <t>Task-urile nu au o descriere, id, si data de final.</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Nu exista metoda de add in controller.</t>
+  </si>
+  <si>
+    <t>Nu exista metoda de modify in TaskList.</t>
+  </si>
+  <si>
+    <t>F01,F04,F05</t>
+  </si>
+  <si>
+    <t>Task service nu are operatiile functionalitatilor descrise.</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Nu este validare pe datele introduse de utilizator, si nici pe cele care sunt parsate din fisierul binar, sau text.</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
+  </si>
+  <si>
+    <t>Coding Document</t>
+  </si>
+  <si>
     <t>Popescu Ionel</t>
   </si>
   <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
-    <t>Requirements Document</t>
-  </si>
-  <si>
-    <t>Architectural Design Document</t>
-  </si>
-  <si>
-    <t>Coding Document</t>
-  </si>
-  <si>
-    <t>Review Form. Coding Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Architectural Design Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Requirements Defects</t>
-  </si>
-  <si>
-    <t>Student 1:</t>
-  </si>
-  <si>
-    <t>Student 2:</t>
-  </si>
-  <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
-    <t>Echipa</t>
-  </si>
-  <si>
-    <t>Grupa</t>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Controller ul foloseste metode pe tasklist direct, fara a apela la TaskService. De asemenea unele metode nu sunt folosite. eg. setTask din LinkedTaskList.java</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Nu exista validare pe datele introduse. Utilizatorul poate face ce vrea el :)</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>code-varriabile</t>
+  </si>
+  <si>
+    <t>Exista variabile care nu sunt sugestive. "tks", "t"</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>La apelarea showFilteredTasks, cand utilizatorul introduce un format gresit de date, avem eroare.</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Tool used:</t>
   </si>
   <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
     <t>Before</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>File, Line</t>
-  </si>
-  <si>
     <t>After/Argument</t>
-  </si>
-  <si>
-    <t>Numele si prenumele</t>
-  </si>
-  <si>
-    <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
@@ -141,34 +267,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +327,20 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,77 +447,79 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,176 +829,302 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="45.75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="30.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="30.75">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -885,84 +1132,87 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -985,175 +1235,301 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="22.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="J2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="C11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+      <c r="C12" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="30.75">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="45.75">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1161,8 +1537,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1170,8 +1546,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1179,8 +1555,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1188,8 +1564,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1197,8 +1573,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1206,8 +1582,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1215,8 +1591,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1224,8 +1600,8 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1233,8 +1609,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1242,12 +1618,15 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+    <row r="28" spans="2:5">
+      <c r="B28" s="16"/>
+      <c r="C28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1270,176 +1649,296 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="J2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="60.75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="30.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="30.75">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="45.75">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1447,8 +1946,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1456,8 +1955,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1465,8 +1964,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1474,8 +1973,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1483,8 +1982,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1492,8 +1991,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1501,8 +2000,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1510,8 +2009,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1519,8 +2018,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1528,8 +2027,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
+    <row r="27" spans="2:5">
+      <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1537,8 +2036,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
+    <row r="28" spans="2:5">
+      <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1546,8 +2045,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
+    <row r="29" spans="2:5">
+      <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1555,8 +2054,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1564,12 +2063,15 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+    <row r="32" spans="2:5">
+      <c r="B32" s="16"/>
+      <c r="C32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1592,117 +2094,168 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
@@ -1710,9 +2263,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
@@ -1720,9 +2278,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1730,9 +2293,14 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1740,9 +2308,14 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1750,9 +2323,14 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1760,9 +2338,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1771,8 +2353,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
+    <row r="18" spans="2:6">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1781,8 +2363,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
+    <row r="19" spans="2:6">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1791,8 +2373,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
+    <row r="20" spans="2:6">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1801,8 +2383,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
+    <row r="21" spans="2:6">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1811,8 +2393,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
+    <row r="22" spans="2:6">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1821,8 +2403,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+    <row r="23" spans="2:6">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1831,8 +2413,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
+    <row r="24" spans="2:6">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1841,8 +2423,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
+    <row r="25" spans="2:6">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1851,8 +2433,8 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
+    <row r="26" spans="2:6">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1861,8 +2443,8 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
+    <row r="27" spans="2:6">
+      <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1871,8 +2453,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
+    <row r="28" spans="2:6">
+      <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1881,8 +2463,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
+    <row r="29" spans="2:6">
+      <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1891,8 +2473,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
+    <row r="30" spans="2:6">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1901,16 +2483,17 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35" s="35"/>
+    <row r="32" spans="2:6">
+      <c r="B32" s="16"/>
+      <c r="C32" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FD84A2-D8E1-420F-B67D-AE002DC5AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7BBF9D-D3F8-4DC9-96B0-D27CF3ED4ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>do not print this form</t>
   </si>
@@ -218,6 +218,9 @@
     <t>Controller ul foloseste metode pe tasklist direct, fara a apela la TaskService. De asemenea unele metode nu sunt folosite. eg. setTask din LinkedTaskList.java</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>C06</t>
   </si>
   <si>
@@ -227,18 +230,27 @@
     <t>C11</t>
   </si>
   <si>
+    <t>TaskIO class</t>
+  </si>
+  <si>
+    <t>Exista variabile care nu sunt sugestive. "tks", "t", "fis", "p"</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
     <t>code-varriabile</t>
   </si>
   <si>
-    <t>Exista variabile care nu sunt sugestive. "tks", "t"</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
     <t>La apelarea showFilteredTasks, cand utilizatorul introduce un format gresit de date, avem eroare.</t>
   </si>
   <si>
+    <t>DateService, line 64</t>
+  </si>
+  <si>
+    <t>&gt; in loc de &gt;=. Se accepta si ora 24 sau minutul 60, ceea ce este gresit.</t>
+  </si>
+  <si>
     <t>2h</t>
   </si>
   <si>
@@ -258,6 +270,99 @@
   </si>
   <si>
     <t>After/Argument</t>
+  </si>
+  <si>
+    <t>29-TaskList.java</t>
+  </si>
+  <si>
+    <t>Standard outputs should not be used directly to log anything</t>
+  </si>
+  <si>
+    <t>System.out.println(getTask(i).getTitle());</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>.info(getTask(i).getTitle());</t>
+    </r>
+  </si>
+  <si>
+    <t>21- Main.java</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static final int defaultWidth = 820;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static final int DEFAULTWIDTTH= 820;
+</t>
+  </si>
+  <si>
+    <t>27 - Main.java</t>
+  </si>
+  <si>
+    <t>Unused "private" fields should be removed</t>
+  </si>
+  <si>
+    <t>private static ClassLoader classLoader = Main.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t>We removed it :)</t>
+  </si>
+  <si>
+    <t>95-Task.java</t>
+  </si>
+  <si>
+    <t>Boolean checks should not be inverted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     return !(this.interval == 0);</t>
+  </si>
+  <si>
+    <t>return this.interval != 0;</t>
+  </si>
+  <si>
+    <t>30 - Main.java</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private TasksService service = new TasksService(savedTasksList);//savedTasksList);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we removed //savedTasksList);</t>
+  </si>
+  <si>
+    <t>57 - Main.java</t>
+  </si>
+  <si>
+    <t>Lambdas containing only one statement should not nest this statement in a block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        primaryStage.setOnCloseRequest(we -&gt; {
+                System.exit(0);
+            });</t>
+  </si>
+  <si>
+    <t>Removing the curly braces is an useless procedure since future modifications to the code can use multiple arugments in that lambda function? (It doesn't look right without curly braces :D )</t>
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
@@ -267,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +449,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Inter"/>
     </font>
   </fonts>
   <fills count="5">
@@ -445,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,6 +588,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,8 +636,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="B13:E13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -855,20 +977,20 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="18"/>
@@ -903,10 +1025,10 @@
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="18" t="s">
@@ -925,10 +1047,10 @@
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="18" t="s">
@@ -947,8 +1069,8 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -961,8 +1083,8 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1260,20 +1382,20 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="18"/>
@@ -1308,10 +1430,10 @@
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="18" t="s">
@@ -1330,10 +1452,10 @@
       <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="18" t="s">
@@ -1352,8 +1474,8 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1366,8 +1488,8 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1420,13 +1542,13 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="16"/>
@@ -1441,13 +1563,13 @@
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="16"/>
@@ -1649,8 +1771,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1675,20 +1797,20 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="18"/>
@@ -1723,10 +1845,10 @@
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="18" t="s">
@@ -1745,10 +1867,10 @@
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="18" t="s">
@@ -1767,8 +1889,8 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1781,8 +1903,8 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1823,7 +1945,9 @@
       <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1836,15 +1960,17 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1857,15 +1983,17 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -1878,30 +2006,40 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="30.75">
       <c r="A14" s="16"/>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -2070,7 +2208,7 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2094,8 +2232,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2121,20 +2259,20 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
-      <c r="B2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="18"/>
@@ -2167,10 +2305,10 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="18" t="s">
@@ -2189,8 +2327,8 @@
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="18" t="s">
@@ -2209,8 +2347,8 @@
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -2223,112 +2361,160 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="60.75">
       <c r="A10" s="16"/>
       <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="76.5">
       <c r="A11" s="16"/>
       <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="60.75">
       <c r="A12" s="16"/>
       <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="45.75">
       <c r="A13" s="16"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="76.5">
       <c r="A14" s="16"/>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="183">
       <c r="A15" s="16"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="16"/>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
@@ -2485,11 +2671,11 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="16"/>
-      <c r="C32" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="C32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="15"/>
     </row>
     <row r="35" spans="6:6">
